--- a/Textbook Companion/Chapter43/Practice Files/Getpivotdata.xlsx
+++ b/Textbook Companion/Chapter43/Practice Files/Getpivotdata.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\Documents\Chapter43pivottables\Companion Content\Practice Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\Textbook Companion\Chapter43\Practice Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="315" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="get pivot data" sheetId="7" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="IBM T42" refreshedDate="39099.5718837963" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="207">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="IBM T42" refreshedDate="39099.5718837963" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="207" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F208" sheet="data"/>
   </cacheSource>
@@ -1910,7 +1910,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:F66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -2169,6 +2169,11 @@
     <dataField name="Sum of Var percentage of Budget" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
@@ -2248,6 +2253,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2283,6 +2305,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2458,11 +2497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:L12"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,6 +2523,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>GETPIVOTDATA("Sum of Revenue",$A$4,"Month","April","Product","Chip 1","Country","France")</f>
+        <v>37600</v>
+      </c>
       <c r="E2">
         <f>GETPIVOTDATA("Sum of Revenue",$A$4,"Month","April","Product","Chip 1","Country","France")</f>
         <v>37600</v>
@@ -2491,6 +2534,16 @@
       <c r="F2">
         <f>GETPIVOTDATA(A4,"Sum of Revenue")</f>
         <v>1026278</v>
+      </c>
+      <c r="H2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E2)</f>
+        <v>=GETPIVOTDATA("Sum of Revenue",$A$4,"Month","April","Product","Chip 1","Country","France")</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>GETPIVOTDATA("Sum of Budget",$A$4,"Month","April","Product","Chip 1","Country","Canada")</f>
+        <v>19289</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3810,16 +3863,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F208"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3839,7 +3892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3859,8 +3912,12 @@
         <f>D2-E2</f>
         <v>-1454</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="e">
+        <f>GETPIVOTDATA(A4,"April France Chip 1 Sum of Revenue")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3881,7 +3938,7 @@
         <v>-1917</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3902,7 +3959,7 @@
         <v>7092</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3923,7 +3980,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3944,7 +4001,7 @@
         <v>-2983</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3965,7 +4022,7 @@
         <v>-4323</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3986,7 +4043,7 @@
         <v>-1917</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4007,7 +4064,7 @@
         <v>7092</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4028,7 +4085,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -4049,7 +4106,7 @@
         <v>-2983</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -4070,7 +4127,7 @@
         <v>-4323</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -4091,7 +4148,7 @@
         <v>-1917</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -4112,7 +4169,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -4133,7 +4190,7 @@
         <v>7092</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -8192,7 +8249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8204,7 +8261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8225,6 +8282,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF8E4BBD310ADB419B3C5F1ACE4D113D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63e1bd94a874076348984a0131457edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1607db4-bd3f-4f82-a312-bf7e283d0a6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c9989741aedae2f07a76d9f40ef2a18" ns2:_="">
     <xsd:import namespace="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
@@ -8284,14 +8349,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3880DD-D25E-424E-BE30-438F37FF10AE}">
   <ds:schemaRefs>
@@ -8301,6 +8358,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C6DA264-27F2-4AC1-8317-25E31765E71C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD27423-670F-47F2-800D-CB9E1E48FE85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8315,19 +8387,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C6DA264-27F2-4AC1-8317-25E31765E71C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>